--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H2">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I2">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J2">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N2">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O2">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P2">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q2">
-        <v>103.759037194176</v>
+        <v>42.622209137124</v>
       </c>
       <c r="R2">
-        <v>933.8313347475839</v>
+        <v>383.599882234116</v>
       </c>
       <c r="S2">
-        <v>0.4560718623193266</v>
+        <v>0.4290285117054283</v>
       </c>
       <c r="T2">
-        <v>0.4560718623193267</v>
+        <v>0.4290285117054283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H3">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I3">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J3">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O3">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P3">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q3">
-        <v>9.400163636447997</v>
+        <v>9.659217877586999</v>
       </c>
       <c r="R3">
-        <v>84.60147272803198</v>
+        <v>86.93296089828299</v>
       </c>
       <c r="S3">
-        <v>0.0413183299663645</v>
+        <v>0.09722818113268834</v>
       </c>
       <c r="T3">
-        <v>0.04131832996636452</v>
+        <v>0.09722818113268834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H4">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I4">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J4">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N4">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O4">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P4">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q4">
-        <v>14.208807503904</v>
+        <v>8.373283322201999</v>
       </c>
       <c r="R4">
-        <v>127.879267535136</v>
+        <v>75.35954989981799</v>
       </c>
       <c r="S4">
-        <v>0.06245467840565173</v>
+        <v>0.0842841643954875</v>
       </c>
       <c r="T4">
-        <v>0.06245467840565175</v>
+        <v>0.0842841643954875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>13.69518</v>
       </c>
       <c r="I5">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J5">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N5">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O5">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P5">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q5">
-        <v>11.10188810556</v>
+        <v>4.438133071759999</v>
       </c>
       <c r="R5">
-        <v>99.91699295004001</v>
+        <v>39.94319764584</v>
       </c>
       <c r="S5">
-        <v>0.04879824370467203</v>
+        <v>0.0446735555259939</v>
       </c>
       <c r="T5">
-        <v>0.04879824370467205</v>
+        <v>0.04467355552599391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.69518</v>
       </c>
       <c r="I6">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J6">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O6">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P6">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q6">
         <v>1.00578771438</v>
@@ -818,10 +818,10 @@
         <v>9.052089429419999</v>
       </c>
       <c r="S6">
-        <v>0.004420930343992562</v>
+        <v>0.01012410231491752</v>
       </c>
       <c r="T6">
-        <v>0.004420930343992564</v>
+        <v>0.01012410231491752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.69518</v>
       </c>
       <c r="I7">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J7">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N7">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O7">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P7">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q7">
-        <v>1.52029736674</v>
+        <v>0.8718868961466666</v>
       </c>
       <c r="R7">
-        <v>13.68267630066</v>
+        <v>7.84698206532</v>
       </c>
       <c r="S7">
-        <v>0.006682452633313357</v>
+        <v>0.008776277555812076</v>
       </c>
       <c r="T7">
-        <v>0.006682452633313359</v>
+        <v>0.008776277555812078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H8">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I8">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J8">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.431926</v>
+        <v>0.9721959999999999</v>
       </c>
       <c r="N8">
-        <v>7.295778</v>
+        <v>2.916588</v>
       </c>
       <c r="O8">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="P8">
-        <v>0.8146397085966534</v>
+        <v>0.7027023771175303</v>
       </c>
       <c r="Q8">
-        <v>70.47441065868</v>
+        <v>22.750234154912</v>
       </c>
       <c r="R8">
-        <v>634.26969592812</v>
+        <v>204.752107394208</v>
       </c>
       <c r="S8">
-        <v>0.3097696025726546</v>
+        <v>0.229000309886108</v>
       </c>
       <c r="T8">
-        <v>0.3097696025726547</v>
+        <v>0.229000309886108</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H9">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I9">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J9">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>0.6609689999999999</v>
       </c>
       <c r="O9">
-        <v>0.07380317678956531</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="P9">
-        <v>0.07380317678956533</v>
+        <v>0.1592492623233027</v>
       </c>
       <c r="Q9">
-        <v>6.384706434139999</v>
+        <v>5.155750321656</v>
       </c>
       <c r="R9">
-        <v>57.46235790725999</v>
+        <v>46.401752894904</v>
       </c>
       <c r="S9">
-        <v>0.02806391647920824</v>
+        <v>0.05189697887569685</v>
       </c>
       <c r="T9">
-        <v>0.02806391647920825</v>
+        <v>0.05189697887569685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H10">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I10">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J10">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.333029</v>
+        <v>0.1909913333333333</v>
       </c>
       <c r="N10">
-        <v>0.9990869999999999</v>
+        <v>0.572974</v>
       </c>
       <c r="O10">
-        <v>0.1115571146137813</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="P10">
-        <v>0.1115571146137814</v>
+        <v>0.138048360559167</v>
       </c>
       <c r="Q10">
-        <v>9.650796326553332</v>
+        <v>4.469363744442667</v>
       </c>
       <c r="R10">
-        <v>86.85716693897999</v>
+        <v>40.224273699984</v>
       </c>
       <c r="S10">
-        <v>0.04241998357481624</v>
+        <v>0.04498791860786743</v>
       </c>
       <c r="T10">
-        <v>0.04241998357481626</v>
+        <v>0.04498791860786743</v>
       </c>
     </row>
   </sheetData>
